--- a/circuits/Drive/Drive.xlsx
+++ b/circuits/Drive/Drive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TomoshibiRepository\MovingDisplay3-Circuit\circuits\Drive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55633E6-69EE-4CE9-9B79-C9B7B89918AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FD2A90-289B-406D-B411-9DA7852F0D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -109,23 +109,11 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ヘッダ/H/THT</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>2 x 7P/1.27mm</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>https://www.digikey.jp/ja/products/detail/cnc-tech/3220-14-0200-00/3882957</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>PicoBlade</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>6P/SMD</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -183,18 +171,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>SPST*4</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>SMD</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/g108929/</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>三端子</t>
     <rPh sb="0" eb="3">
       <t>サンタンシ</t>
@@ -252,10 +228,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>5P/SMD</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>5P</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -284,123 +256,16 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>SPST</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>スライド</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>SPDT</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ポスト / H</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ポスト / V</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>BNO055</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>PIM573</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SMD /小 / 縦 / 白</t>
-    <rPh sb="5" eb="6">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>シロ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>THT / 小 / 縦 / 白</t>
-    <rPh sb="6" eb="7">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シロ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>THT / 中 / 縦 / 白</t>
-    <rPh sb="6" eb="7">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シロ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SMD / 中 / 縦 / 黒</t>
-    <rPh sb="6" eb="7">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>クロ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/g117877/</t>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/g114975/</t>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/g116438/</t>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/g115504/</t>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/g108074/</t>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/g106184/</t>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/g115367/</t>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/g105043/</t>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/g111878/</t>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/g103982/</t>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/g111877/</t>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/g103978/</t>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/g111880/</t>
   </si>
   <si>
     <t>https://akizukidenshi.com/catalog/g/g117577/</t>
@@ -420,6 +285,176 @@
   <si>
     <t>CUS10F30</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SPST / SMD /小 / 縦 / 白</t>
+    <rPh sb="12" eb="13">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SPST / THT / 小 / 縦 / 白</t>
+    <rPh sb="13" eb="14">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SPDT / THT / 中 / 縦 / 白</t>
+    <rPh sb="13" eb="14">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SPDT / SMD / 中 / 縦 / 黒</t>
+    <rPh sb="13" eb="14">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SKRPABE010</t>
+  </si>
+  <si>
+    <t>SSSS213202</t>
+  </si>
+  <si>
+    <t>SPST x 4 / SMD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g106184/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g108074/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g115367/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IS-1235-G</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g105043/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g116438/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g114975/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g115504/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g111880/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g103978/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g111877/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g103982/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g111878/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g117877/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2P / H</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ポスト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>5P / H</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ヘッダ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2 x 7P / H / 1.27mm / THT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>6P / V</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/DIP-Switches_hanxia-HX-1-27-4P-TPPT_C7430300.html?s_z=s_Switches%257CDIP%2520Switches</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Housings-Wire-To-Board-Wire-To-Wire_MOLEX-510210600_C385105.html?s_z=n_C385105</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Wire-To-Board-Connector_Hong-Cheng-HCZZ0001-5_C7433456.html?s_z=n_C7433456</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Wire-To-Board-Connector_Hong-Cheng-HCZZ0015-6_C7433472.html?s_z=n_C7433472</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Housings-Wire-To-Board-Wire-To-Wire_MOLEX-510210500_C192632.html?s_z=n_C192632</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Wire-To-Board-Connector_MOLEX-22057025_C240819.html?s_z=n_spox</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Housings-Wire-To-Board-Wire-To-Wire_MOLEX-50375023_C142370.html?s_z=n_spox</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -474,7 +509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,8 +528,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -506,6 +547,367 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -522,18 +924,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,18 +939,146 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -837,552 +1361,643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="C11" activeCellId="1" sqref="A9:XFD9 C11"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="5" width="17.8125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="17.8125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="2" customWidth="1"/>
+    <col min="4" max="5" width="17.8125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.8125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="18.399999999999999" thickTop="1" thickBot="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="18" thickTop="1">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
+      <c r="D2" s="22"/>
+      <c r="E2" s="13">
+        <v>90</v>
+      </c>
+      <c r="F2" s="38">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickBot="1">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
+      <c r="D3" s="23"/>
+      <c r="E3" s="15">
+        <v>10</v>
+      </c>
+      <c r="F3" s="39">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickTop="1">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="C4" s="14"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="13">
+        <v>100</v>
+      </c>
+      <c r="F4" s="38">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="16">
+        <v>200</v>
+      </c>
+      <c r="F5" s="40">
+        <v>2</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
+    <row r="6" spans="1:7">
+      <c r="A6" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="D6" s="7"/>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="40">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="D7" s="7"/>
+      <c r="E7" s="16">
+        <v>200</v>
+      </c>
+      <c r="F7" s="40">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="16">
+        <v>100</v>
+      </c>
+      <c r="F8" s="40">
+        <v>1</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="44">
+        <v>150</v>
+      </c>
+      <c r="F9" s="46">
+        <v>1</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickBot="1">
+      <c r="A10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="15">
+        <v>480</v>
+      </c>
+      <c r="F10" s="39">
+        <v>1</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="18" thickTop="1">
+      <c r="A11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="41">
+        <v>1</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1">
+      <c r="A12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+      <c r="D12" s="25">
+        <v>22057025</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="42">
+        <v>5</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1">
+      <c r="A13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="25">
+        <v>50375023</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="42">
+        <v>5</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1">
+      <c r="A14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="25">
+        <v>8701039</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="42">
+        <v>10</v>
+      </c>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1">
+      <c r="A15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="42">
+        <v>2</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="6" customFormat="1">
+      <c r="A16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="42">
+        <v>2</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1">
+      <c r="A17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="42">
+        <v>2</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="6" customFormat="1">
+      <c r="A18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="42">
+        <v>2</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="6" customFormat="1">
+      <c r="A19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="42">
+        <v>22</v>
+      </c>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" thickBot="1">
+      <c r="A20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="15">
+        <v>70</v>
+      </c>
+      <c r="F20" s="39">
+        <v>1</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.399999999999999" thickTop="1" thickBot="1">
+      <c r="A21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1608</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="11">
+        <v>110</v>
+      </c>
+      <c r="F21" s="37">
+        <v>1</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.399999999999999" thickTop="1" thickBot="1">
+      <c r="A22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="11">
+        <v>100</v>
+      </c>
+      <c r="F22" s="37">
+        <v>2</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" thickTop="1">
+      <c r="A23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="13">
+        <v>120</v>
+      </c>
+      <c r="F23" s="38">
+        <v>1</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="43">
+        <v>20</v>
+      </c>
+      <c r="F24" s="40">
+        <v>1</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="16">
+        <v>25</v>
+      </c>
+      <c r="F25" s="40">
+        <v>1</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="16">
+        <v>330</v>
+      </c>
+      <c r="F26" s="40">
+        <v>1</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="53" customFormat="1" ht="18" thickBot="1">
+      <c r="A27" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="51">
+        <v>1</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" thickTop="1">
+      <c r="A28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
+      <c r="E28" s="13">
+        <v>30</v>
+      </c>
+      <c r="F28" s="38">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="G28" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="40">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" thickBot="1">
+      <c r="A30" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="39">
         <v>1</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1">
-      <c r="A11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="9" customFormat="1">
-      <c r="A12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="7">
-        <v>22035025</v>
-      </c>
-      <c r="E12" s="7">
-        <v>5</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" s="9" customFormat="1">
-      <c r="A13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="7">
-        <v>50375023</v>
-      </c>
-      <c r="E13" s="7">
-        <v>5</v>
-      </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" s="9" customFormat="1">
-      <c r="A14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7">
-        <v>8701039</v>
-      </c>
-      <c r="E14" s="7">
-        <v>10</v>
-      </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" s="9" customFormat="1">
-      <c r="A15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" s="9" customFormat="1">
-      <c r="A16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7">
-        <v>2</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1">
-      <c r="A17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7">
-        <v>2</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" s="9" customFormat="1">
-      <c r="A18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7">
-        <v>2</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" s="9" customFormat="1">
-      <c r="A19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7">
-        <v>22</v>
-      </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1608</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="9" customFormat="1">
-      <c r="A29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" s="9" customFormat="1">
-      <c r="A30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" thickTop="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="F27" r:id="rId1" xr:uid="{171D5558-16D6-4B55-B61B-4EB8AC2A4643}"/>
-    <hyperlink ref="F28" r:id="rId2" xr:uid="{6E4BE756-80D6-4EFB-BAF9-B924147A413C}"/>
-    <hyperlink ref="F10" r:id="rId3" xr:uid="{6B76CB8D-C384-464F-93FE-64DB27DD54D5}"/>
-    <hyperlink ref="F11" r:id="rId4" xr:uid="{C8EE75EF-5CED-4434-AE23-926173857D05}"/>
-    <hyperlink ref="F2" r:id="rId5" xr:uid="{F7FB6E25-3471-47BD-96FC-DC595A3B4493}"/>
-    <hyperlink ref="F9" r:id="rId6" xr:uid="{5AABA4E5-B587-42D2-9FB2-8F9BB0019591}"/>
+    <hyperlink ref="G28" r:id="rId1" xr:uid="{6E4BE756-80D6-4EFB-BAF9-B924147A413C}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{6B76CB8D-C384-464F-93FE-64DB27DD54D5}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{C8EE75EF-5CED-4434-AE23-926173857D05}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{F7FB6E25-3471-47BD-96FC-DC595A3B4493}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{5AABA4E5-B587-42D2-9FB2-8F9BB0019591}"/>
+    <hyperlink ref="G23" r:id="rId6" xr:uid="{D6BA9C53-4E43-4D81-9C38-E9614DEC6859}"/>
+    <hyperlink ref="G24" r:id="rId7" xr:uid="{B2F7698B-AFDB-495A-8431-59BCA80849A3}"/>
+    <hyperlink ref="G25" r:id="rId8" xr:uid="{6C2A42F1-0D73-4FAC-8C56-52DD29501CB3}"/>
+    <hyperlink ref="G26" r:id="rId9" xr:uid="{63EB4203-A0B5-46BA-9AA0-4BAFD656FBC2}"/>
+    <hyperlink ref="G20" r:id="rId10" xr:uid="{67A1B23F-D143-433F-9A0F-7B85182A359B}"/>
+    <hyperlink ref="G21" r:id="rId11" xr:uid="{D6E60E94-DD68-4081-AB7F-43825DA08108}"/>
+    <hyperlink ref="G22" r:id="rId12" xr:uid="{E96D894D-DE7B-4F5A-9BB2-CA218B8E8903}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{D5B87625-5A2C-4D44-9085-895A48E9F44F}"/>
+    <hyperlink ref="G7" r:id="rId14" xr:uid="{0B778C8C-0155-4494-883E-72950C5174F8}"/>
+    <hyperlink ref="G6" r:id="rId15" xr:uid="{CDEA22A5-8186-477B-9866-CAEB7167AD3C}"/>
+    <hyperlink ref="G5" r:id="rId16" xr:uid="{B12F65B7-B0B9-4C2C-BC9F-E5D929FA9A95}"/>
+    <hyperlink ref="G4" r:id="rId17" xr:uid="{79FECEB1-BFD5-426E-ACD9-81C4F0FB90E7}"/>
+    <hyperlink ref="G3" r:id="rId18" xr:uid="{B5C67E23-BAD3-42C5-AA16-3576B223675C}"/>
+    <hyperlink ref="G13" r:id="rId19" xr:uid="{29FBC534-0011-4017-853B-4993294B935E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
